--- a/data/trans_orig/P24F-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P24F-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>2869</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7635</v>
+        <v>7786</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01892433719581206</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005621748602124894</v>
+        <v>0.005543751012284925</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05035587431399195</v>
+        <v>0.05135344518233374</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -764,19 +764,19 @@
         <v>5916</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2039</v>
+        <v>2006</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12852</v>
+        <v>12034</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06411117520831895</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02209230368166741</v>
+        <v>0.02174425454998967</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1392797602157893</v>
+        <v>0.130419560442312</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -785,19 +785,19 @@
         <v>8785</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3947</v>
+        <v>3899</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15941</v>
+        <v>15609</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03602080341731023</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01618273201541372</v>
+        <v>0.015988907129788</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06536121633639509</v>
+        <v>0.06400273463781794</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>38974</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>29410</v>
+        <v>28517</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>50182</v>
+        <v>51359</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.257061098109734</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1939820159995762</v>
+        <v>0.1880930606253947</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3309893772087684</v>
+        <v>0.3387498795562686</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -835,19 +835,19 @@
         <v>28858</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20574</v>
+        <v>20214</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37794</v>
+        <v>38251</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3127420662527389</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2229624320289333</v>
+        <v>0.2190699928756686</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4095802153365058</v>
+        <v>0.4145329532234795</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>65</v>
@@ -856,19 +856,19 @@
         <v>67832</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>53641</v>
+        <v>54228</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>83089</v>
+        <v>81251</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2781280245181212</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2199439624378955</v>
+        <v>0.2223487810980397</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.340686754838925</v>
+        <v>0.3331516220836912</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>81930</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>70486</v>
+        <v>69062</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>95490</v>
+        <v>94232</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5403907862768449</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4649074888431614</v>
+        <v>0.4555202466240565</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6298311885686951</v>
+        <v>0.6215322074635696</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>39</v>
@@ -906,19 +906,19 @@
         <v>40199</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>31262</v>
+        <v>30790</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>50439</v>
+        <v>49964</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4356436317721581</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3387944829881098</v>
+        <v>0.3336753153172227</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5466218016703041</v>
+        <v>0.5414779455395125</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>119</v>
@@ -927,19 +927,19 @@
         <v>122128</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>105012</v>
+        <v>106141</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>137956</v>
+        <v>136483</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5007596399618103</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4305776749445407</v>
+        <v>0.4352060149982033</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5656596299529549</v>
+        <v>0.5596182459768894</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>27840</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19548</v>
+        <v>19153</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38727</v>
+        <v>39645</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1836237784176091</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1289323328240342</v>
+        <v>0.1263287219460877</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.255433239548111</v>
+        <v>0.2614909939111089</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -977,19 +977,19 @@
         <v>17302</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10612</v>
+        <v>10359</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25139</v>
+        <v>25952</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.187503126766784</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1150031358551377</v>
+        <v>0.1122680936710076</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2724362739233147</v>
+        <v>0.2812484858578078</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>44</v>
@@ -998,19 +998,19 @@
         <v>45141</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33444</v>
+        <v>33381</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58400</v>
+        <v>57672</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1850915321027582</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1371284575094165</v>
+        <v>0.136869939613797</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2394549256156286</v>
+        <v>0.2364726905377592</v>
       </c>
     </row>
     <row r="8">
@@ -1102,19 +1102,19 @@
         <v>4635</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1723</v>
+        <v>1676</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10158</v>
+        <v>9519</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03429199523632987</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01274572878727232</v>
+        <v>0.01239802320755546</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07514928301260843</v>
+        <v>0.07042436006182838</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -1123,19 +1123,19 @@
         <v>6279</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2281</v>
+        <v>2073</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13007</v>
+        <v>12648</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04721361548941973</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01715261135405251</v>
+        <v>0.01558900820563278</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.09779792036924623</v>
+        <v>0.09509637073974526</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -1144,19 +1144,19 @@
         <v>10915</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5753</v>
+        <v>5461</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>19040</v>
+        <v>18566</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04070055314967699</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02145193537720261</v>
+        <v>0.02036512235573732</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07099908308975221</v>
+        <v>0.06923198361403532</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>58291</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46633</v>
+        <v>47996</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>69540</v>
+        <v>70353</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4312515788077342</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3449993560213347</v>
+        <v>0.3550834184967775</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5144711117189559</v>
+        <v>0.5204825912046516</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -1194,19 +1194,19 @@
         <v>49112</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37766</v>
+        <v>37980</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60575</v>
+        <v>61005</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3692636445269585</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2839557367552266</v>
+        <v>0.2855664485729821</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4554542910500516</v>
+        <v>0.4586838336148663</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>104</v>
@@ -1215,19 +1215,19 @@
         <v>107404</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>90897</v>
+        <v>92163</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>125536</v>
+        <v>126450</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4005082773496904</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3389548673684923</v>
+        <v>0.34367640322201</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4681255867499673</v>
+        <v>0.4715345039566105</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>52899</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>42817</v>
+        <v>41500</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>65612</v>
+        <v>65020</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3913555407384419</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3167690699400165</v>
+        <v>0.3070240717610922</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4854094701395913</v>
+        <v>0.4810329578788187</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>54</v>
@@ -1265,19 +1265,19 @@
         <v>53699</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>42744</v>
+        <v>44085</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>65250</v>
+        <v>67074</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4037495262503025</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3213853006026456</v>
+        <v>0.3314694973956175</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4906042691409216</v>
+        <v>0.5043137486510775</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>102</v>
@@ -1286,19 +1286,19 @@
         <v>106597</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>90712</v>
+        <v>89344</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>123688</v>
+        <v>122807</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.397502414920954</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3382649737893716</v>
+        <v>0.3331634926036285</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4612321684035214</v>
+        <v>0.4579467565094898</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>19343</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11740</v>
+        <v>12246</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>29132</v>
+        <v>28355</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1431008852174941</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08685675760446841</v>
+        <v>0.09060075444780642</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2155227947383944</v>
+        <v>0.2097731840409178</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>24</v>
@@ -1336,19 +1336,19 @@
         <v>23910</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>15813</v>
+        <v>16031</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>33825</v>
+        <v>33982</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1797732137333192</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1188944328180159</v>
+        <v>0.1205373254249406</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2543208478858422</v>
+        <v>0.2555059974986061</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>42</v>
@@ -1357,19 +1357,19 @@
         <v>43252</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>31600</v>
+        <v>31774</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>55936</v>
+        <v>56584</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1612887545796786</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1178383338648895</v>
+        <v>0.1184852087561721</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2085844791014786</v>
+        <v>0.211001326793407</v>
       </c>
     </row>
     <row r="13">
@@ -1461,19 +1461,19 @@
         <v>12161</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6149</v>
+        <v>5799</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>20781</v>
+        <v>20672</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04768504852859459</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02411223368526907</v>
+        <v>0.02273889898054614</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08148633705434732</v>
+        <v>0.08106115945904863</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1482,19 +1482,19 @@
         <v>3026</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>955</v>
+        <v>973</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8260</v>
+        <v>8290</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06549950545636068</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02066563397040753</v>
+        <v>0.02106457108986205</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.178765827079768</v>
+        <v>0.1794186361146279</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -1503,19 +1503,19 @@
         <v>15187</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8959</v>
+        <v>8677</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24428</v>
+        <v>25204</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.05041750282820542</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02974245793889203</v>
+        <v>0.02880666738737993</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08109654821737816</v>
+        <v>0.0836731972113504</v>
       </c>
     </row>
     <row r="15">
@@ -1532,19 +1532,19 @@
         <v>95447</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>80763</v>
+        <v>81701</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>111441</v>
+        <v>111800</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3742691868147808</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3166930787525131</v>
+        <v>0.3203712384281365</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4369882020898848</v>
+        <v>0.4383951764259708</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>16</v>
@@ -1553,19 +1553,19 @@
         <v>15315</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>9796</v>
+        <v>9490</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>22223</v>
+        <v>21802</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3314750364941673</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2120227964503549</v>
+        <v>0.2053906406677331</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.480988329075354</v>
+        <v>0.4718657692456948</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>110</v>
@@ -1574,19 +1574,19 @@
         <v>110762</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>94002</v>
+        <v>94267</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>128819</v>
+        <v>129450</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.36770524492669</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3120644276470186</v>
+        <v>0.3129470997943263</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4276497501047677</v>
+        <v>0.429746565444646</v>
       </c>
     </row>
     <row r="16">
@@ -1603,19 +1603,19 @@
         <v>107495</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>93199</v>
+        <v>92518</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>123363</v>
+        <v>123224</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4215147512848281</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3654566894871965</v>
+        <v>0.3627870845406022</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4837380225951244</v>
+        <v>0.4831930728678323</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -1624,19 +1624,19 @@
         <v>17639</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10938</v>
+        <v>10982</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23827</v>
+        <v>23616</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.381765065767045</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2367423346804669</v>
+        <v>0.2376838722425231</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5156942680563085</v>
+        <v>0.5111278912122497</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>123</v>
@@ -1645,19 +1645,19 @@
         <v>125134</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>108353</v>
+        <v>108213</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>141925</v>
+        <v>142128</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.415417781866021</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.35970786241055</v>
+        <v>0.3592445689198798</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4711599980470974</v>
+        <v>0.4718330983955454</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>39919</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29400</v>
+        <v>29001</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52539</v>
+        <v>52380</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1565310133717965</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1152829929499429</v>
+        <v>0.1137211869841885</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2060194434577277</v>
+        <v>0.205393660559552</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1695,19 +1695,19 @@
         <v>10223</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5294</v>
+        <v>5411</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16634</v>
+        <v>16649</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.221260392282427</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1145781197625441</v>
+        <v>0.1171058287224267</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3600115727495168</v>
+        <v>0.3603378861431183</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -1716,19 +1716,19 @@
         <v>50142</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>38245</v>
+        <v>37917</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>63833</v>
+        <v>65078</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1664594703790835</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1269647470581432</v>
+        <v>0.1258766477182361</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.211910088343267</v>
+        <v>0.2160435682211315</v>
       </c>
     </row>
     <row r="18">
@@ -1820,19 +1820,19 @@
         <v>23892</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15303</v>
+        <v>15187</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>36758</v>
+        <v>35593</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04238629116708857</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02714917437536898</v>
+        <v>0.02694241959045572</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06521047797533844</v>
+        <v>0.06314392503951974</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1841,19 +1841,19 @@
         <v>8787</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4734</v>
+        <v>4623</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16462</v>
+        <v>15728</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03644496717794154</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0196365508739221</v>
+        <v>0.01917331540792273</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06827866829017554</v>
+        <v>0.06523628663196328</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>32</v>
@@ -1862,19 +1862,19 @@
         <v>32679</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21441</v>
+        <v>22589</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>44396</v>
+        <v>46071</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04060637882573963</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02664237432485422</v>
+        <v>0.0280692050969935</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05516535500855636</v>
+        <v>0.05724691442952177</v>
       </c>
     </row>
     <row r="20">
@@ -1891,19 +1891,19 @@
         <v>194495</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>173364</v>
+        <v>172458</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>217762</v>
+        <v>218811</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3450458692664694</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3075585657345017</v>
+        <v>0.305950612406834</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3863239298444631</v>
+        <v>0.3881841100473626</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>80</v>
@@ -1912,19 +1912,19 @@
         <v>84533</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>69975</v>
+        <v>70461</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>100927</v>
+        <v>100702</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3506208312799815</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2902369390118997</v>
+        <v>0.292254451624728</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4186191249743111</v>
+        <v>0.4176826571809771</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>272</v>
@@ -1933,19 +1933,19 @@
         <v>279028</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>252366</v>
+        <v>251406</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>306749</v>
+        <v>307442</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3467160262396504</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3135855662601754</v>
+        <v>0.3123933191294821</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3811615479965904</v>
+        <v>0.3820224101759017</v>
       </c>
     </row>
     <row r="21">
@@ -1962,19 +1962,19 @@
         <v>224134</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>202311</v>
+        <v>200725</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>248037</v>
+        <v>247014</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3976285151983993</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3589121861129968</v>
+        <v>0.3560984235210106</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4400333641804033</v>
+        <v>0.4382185298588547</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>109</v>
@@ -1983,19 +1983,19 @@
         <v>111487</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>96213</v>
+        <v>96444</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>127435</v>
+        <v>126644</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.462416449503294</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3990664577999423</v>
+        <v>0.4000220971372132</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5285667799116639</v>
+        <v>0.5252836178758429</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>328</v>
@@ -2004,19 +2004,19 @@
         <v>335621</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>308514</v>
+        <v>307891</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>365562</v>
+        <v>364449</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.417037799063483</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.383354274404481</v>
+        <v>0.3825803131920085</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4542418654553387</v>
+        <v>0.4528590283360953</v>
       </c>
     </row>
     <row r="22">
@@ -2033,19 +2033,19 @@
         <v>121157</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>103136</v>
+        <v>102260</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>142587</v>
+        <v>142135</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2149393243680428</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1829701724793295</v>
+        <v>0.181415996283748</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2529581575218319</v>
+        <v>0.2521559489024552</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>36</v>
@@ -2054,19 +2054,19 @@
         <v>36289</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>26194</v>
+        <v>25883</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>48399</v>
+        <v>48085</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1505177520387829</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1086460588569207</v>
+        <v>0.1073543588688747</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2007439591503004</v>
+        <v>0.1994444964507045</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>152</v>
@@ -2075,19 +2075,19 @@
         <v>157446</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>135367</v>
+        <v>137025</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>181836</v>
+        <v>182475</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.195639795871127</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1682051695873468</v>
+        <v>0.1702656505976356</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2259462214247488</v>
+        <v>0.2267405158223675</v>
       </c>
     </row>
     <row r="23">
@@ -2179,19 +2179,19 @@
         <v>7568</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3214</v>
+        <v>3232</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15956</v>
+        <v>14758</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04051779362166873</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01721030257878627</v>
+        <v>0.01730422423651309</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08542758433490215</v>
+        <v>0.07901585264410504</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -2200,19 +2200,19 @@
         <v>10424</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5195</v>
+        <v>5162</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>18037</v>
+        <v>18539</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05774613667497545</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02878105531047832</v>
+        <v>0.02859900097663073</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09991956982613526</v>
+        <v>0.1027002484719751</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>17</v>
@@ -2221,19 +2221,19 @@
         <v>17992</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10923</v>
+        <v>10640</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>27618</v>
+        <v>28001</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.04898513696559095</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02973908362758725</v>
+        <v>0.02897005086033342</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07519397789917491</v>
+        <v>0.07623757869359769</v>
       </c>
     </row>
     <row r="25">
@@ -2250,19 +2250,19 @@
         <v>73547</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>61516</v>
+        <v>60337</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>88373</v>
+        <v>87958</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3937758390591808</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3293631791418106</v>
+        <v>0.3230461438662826</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4731564460472507</v>
+        <v>0.4709325333331422</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>61</v>
@@ -2271,19 +2271,19 @@
         <v>64844</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>52330</v>
+        <v>52222</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>77369</v>
+        <v>78226</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3592230536739389</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2898954487778275</v>
+        <v>0.2892998980942267</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4286054545900695</v>
+        <v>0.4333540202344047</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>133</v>
@@ -2292,19 +2292,19 @@
         <v>138392</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>119741</v>
+        <v>118451</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>159046</v>
+        <v>157752</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3767939217360552</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3260141885049501</v>
+        <v>0.3225018463587316</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4330293095818617</v>
+        <v>0.4295073945689685</v>
       </c>
     </row>
     <row r="26">
@@ -2321,19 +2321,19 @@
         <v>63950</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>51600</v>
+        <v>51494</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>77554</v>
+        <v>78668</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3423943742971844</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.276267067423233</v>
+        <v>0.275704138107926</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4152299399194661</v>
+        <v>0.4211912730123216</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>73</v>
@@ -2342,19 +2342,19 @@
         <v>75343</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>62604</v>
+        <v>61226</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>88798</v>
+        <v>88759</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4173807488422892</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3468094623102944</v>
+        <v>0.3391784015060707</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4919197887912194</v>
+        <v>0.4917027839992566</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>135</v>
@@ -2363,19 +2363,19 @@
         <v>139293</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>120555</v>
+        <v>120105</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>158885</v>
+        <v>159143</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3792484918071956</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3282313220329601</v>
+        <v>0.3270056737102036</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4325905198443881</v>
+        <v>0.4332934539343773</v>
       </c>
     </row>
     <row r="27">
@@ -2392,19 +2392,19 @@
         <v>41709</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>30180</v>
+        <v>31412</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>54642</v>
+        <v>56233</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.223311993021966</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1615862395026316</v>
+        <v>0.1681843391271688</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.292554413626744</v>
+        <v>0.3010735552192451</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>28</v>
@@ -2413,19 +2413,19 @@
         <v>29902</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>21025</v>
+        <v>20903</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>40972</v>
+        <v>41421</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1656500608087964</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1164759413189845</v>
+        <v>0.1157976675828685</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2269773463450284</v>
+        <v>0.2294628435071929</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>67</v>
@@ -2434,19 +2434,19 @@
         <v>71611</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>57666</v>
+        <v>55329</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>87978</v>
+        <v>88041</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1949724494911582</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.157004358339788</v>
+        <v>0.1506410731138215</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.239535683232141</v>
+        <v>0.2397060277624846</v>
       </c>
     </row>
     <row r="28">
@@ -2538,19 +2538,19 @@
         <v>4931</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1819</v>
+        <v>1899</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>10432</v>
+        <v>10151</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05622371673922455</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02074168100229264</v>
+        <v>0.02164830927927545</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1189430572728201</v>
+        <v>0.1157417672569062</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>13</v>
@@ -2559,19 +2559,19 @@
         <v>12762</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7502</v>
+        <v>6910</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>20474</v>
+        <v>21474</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0754399916265631</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04434336974410246</v>
+        <v>0.04084547819744901</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1210233440146979</v>
+        <v>0.1269350469879736</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>18</v>
@@ -2580,19 +2580,19 @@
         <v>17693</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>10330</v>
+        <v>10959</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>27746</v>
+        <v>27271</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06887897016877793</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04021476918171334</v>
+        <v>0.04266147080715794</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1080142007760089</v>
+        <v>0.1061649112054986</v>
       </c>
     </row>
     <row r="30">
@@ -2609,19 +2609,19 @@
         <v>55824</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>46539</v>
+        <v>45835</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>64560</v>
+        <v>64419</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.6365028446895125</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5306310415079469</v>
+        <v>0.5226015953709559</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7360989688426084</v>
+        <v>0.7344945119574257</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>63</v>
@@ -2630,19 +2630,19 @@
         <v>59218</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>47544</v>
+        <v>48622</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>71670</v>
+        <v>72107</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3500491629477381</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2810439463925536</v>
+        <v>0.2874158988784239</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4236519387584616</v>
+        <v>0.4262394900382778</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>120</v>
@@ -2651,19 +2651,19 @@
         <v>115043</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>99609</v>
+        <v>100331</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>129309</v>
+        <v>132377</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4478531735370999</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.387771205113669</v>
+        <v>0.3905805996858642</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5033905668528978</v>
+        <v>0.5153327936244403</v>
       </c>
     </row>
     <row r="31">
@@ -2680,19 +2680,19 @@
         <v>7457</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3563</v>
+        <v>3171</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>14768</v>
+        <v>14887</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.08502309024312442</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04062235361678693</v>
+        <v>0.0361526473072666</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1683829369872137</v>
+        <v>0.1697345550185731</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>61</v>
@@ -2701,19 +2701,19 @@
         <v>60866</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>49101</v>
+        <v>48355</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>73211</v>
+        <v>72836</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3597909342729841</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2902433356224525</v>
+        <v>0.2858332991438203</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4327624235741215</v>
+        <v>0.4305471910018457</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>68</v>
@@ -2722,19 +2722,19 @@
         <v>68323</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>55395</v>
+        <v>54547</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>85041</v>
+        <v>82994</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2659768245582494</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2156474277751641</v>
+        <v>0.2123465313457569</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3310603630449963</v>
+        <v>0.3230880800348764</v>
       </c>
     </row>
     <row r="32">
@@ -2751,19 +2751,19 @@
         <v>19492</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>12355</v>
+        <v>12375</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>28356</v>
+        <v>28273</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2222503483281386</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1408650219061644</v>
+        <v>0.1410952059800333</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3233073792889551</v>
+        <v>0.3223673902814461</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>35</v>
@@ -2772,19 +2772,19 @@
         <v>36324</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>26304</v>
+        <v>26549</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>46692</v>
+        <v>48367</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2147199111527147</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1554879513513951</v>
+        <v>0.1569366974008493</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2760032076194121</v>
+        <v>0.285904223154591</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>54</v>
@@ -2793,19 +2793,19 @@
         <v>55817</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>43790</v>
+        <v>42979</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>70747</v>
+        <v>70099</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2172910317358727</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.170473215660201</v>
+        <v>0.1673125250860835</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2754147322473846</v>
+        <v>0.2728892635486693</v>
       </c>
     </row>
     <row r="33">
@@ -2897,19 +2897,19 @@
         <v>56056</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>42880</v>
+        <v>42775</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>74116</v>
+        <v>72753</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04062154838650653</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03107371980547012</v>
+        <v>0.03099748238989052</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05370850553638067</v>
+        <v>0.05272096958663763</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>47</v>
@@ -2918,19 +2918,19 @@
         <v>47194</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>35170</v>
+        <v>35832</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>60602</v>
+        <v>64369</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0547335841129282</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04078846742832252</v>
+        <v>0.0415559766223536</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07028351032705148</v>
+        <v>0.07465212894477978</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>101</v>
@@ -2939,19 +2939,19 @@
         <v>103250</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>84990</v>
+        <v>84559</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>125977</v>
+        <v>124505</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0460484120066177</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0379042476441054</v>
+        <v>0.03771215868138072</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05618402384988752</v>
+        <v>0.05552781315173034</v>
       </c>
     </row>
     <row r="35">
@@ -2968,19 +2968,19 @@
         <v>516578</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>478619</v>
+        <v>480384</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>550733</v>
+        <v>557112</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3743432276293173</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3468359828641328</v>
+        <v>0.3481143959760273</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3990933813422975</v>
+        <v>0.4037163679471215</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>294</v>
@@ -2989,19 +2989,19 @@
         <v>301881</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>276262</v>
+        <v>273615</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>330708</v>
+        <v>328899</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3501056182309735</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3203942445715016</v>
+        <v>0.3173247521886608</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.383537511638199</v>
+        <v>0.3814401232026077</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>804</v>
@@ -3010,19 +3010,19 @@
         <v>818459</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>768760</v>
+        <v>771005</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>863241</v>
+        <v>863452</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3650225170506112</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3428574075336104</v>
+        <v>0.3438583084447623</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3849946828231888</v>
+        <v>0.3850888441397147</v>
       </c>
     </row>
     <row r="36">
@@ -3039,19 +3039,19 @@
         <v>537866</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>501461</v>
+        <v>499141</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>572584</v>
+        <v>572371</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3897692739401087</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3633885738875625</v>
+        <v>0.3617068387719427</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4149285984847464</v>
+        <v>0.4147737330617021</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>353</v>
@@ -3060,19 +3060,19 @@
         <v>359232</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>329828</v>
+        <v>330727</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>389401</v>
+        <v>390288</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4166177398222929</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3825175314778113</v>
+        <v>0.3835593743587989</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4516067227721415</v>
+        <v>0.4526349968293742</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>875</v>
@@ -3081,19 +3081,19 @@
         <v>897097</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>849868</v>
+        <v>848066</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>944828</v>
+        <v>943806</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4000940042324949</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.379030185383995</v>
+        <v>0.3782267889861001</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4213813105321306</v>
+        <v>0.4209254583470224</v>
       </c>
     </row>
     <row r="37">
@@ -3110,19 +3110,19 @@
         <v>269459</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>239531</v>
+        <v>240648</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>298875</v>
+        <v>300350</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1952659500440674</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1735781079018182</v>
+        <v>0.1743878445178746</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2165823830167385</v>
+        <v>0.2176511066938371</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>150</v>
@@ -3131,19 +3131,19 @@
         <v>153950</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>132773</v>
+        <v>132602</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>176582</v>
+        <v>176121</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1785430578338055</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1539836488207828</v>
+        <v>0.1537843177028716</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2047910032507018</v>
+        <v>0.204255738615328</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>408</v>
@@ -3152,19 +3152,19 @@
         <v>423409</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>386409</v>
+        <v>387715</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>460464</v>
+        <v>461449</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1888350667102762</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.172333366123176</v>
+        <v>0.1729158461458958</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2053610962011847</v>
+        <v>0.2058005806780494</v>
       </c>
     </row>
     <row r="38">
@@ -3498,19 +3498,19 @@
         <v>6088</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2290</v>
+        <v>2185</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12631</v>
+        <v>11915</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04130561187484382</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0155389132528897</v>
+        <v>0.01482454920838659</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08569938661851842</v>
+        <v>0.0808443612551305</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5118</v>
+        <v>5534</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01083905144073511</v>
@@ -3531,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05224197709042598</v>
+        <v>0.05648346539420041</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -3540,19 +3540,19 @@
         <v>7150</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3070</v>
+        <v>2907</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14475</v>
+        <v>13950</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0291398200963743</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01251376906759143</v>
+        <v>0.0118466996982482</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05899739896120312</v>
+        <v>0.05685431651857717</v>
       </c>
     </row>
     <row r="5">
@@ -3569,19 +3569,19 @@
         <v>19312</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11859</v>
+        <v>12374</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28611</v>
+        <v>29281</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1310331760663395</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08046281693737301</v>
+        <v>0.08396105837553373</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.19412834542568</v>
+        <v>0.1986754017046574</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -3590,19 +3590,19 @@
         <v>16080</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9041</v>
+        <v>8224</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25854</v>
+        <v>25575</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1641275990097097</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09227889004850361</v>
+        <v>0.08393908039934318</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2638827397932519</v>
+        <v>0.2610393422792972</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -3611,19 +3611,19 @@
         <v>35392</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>24629</v>
+        <v>25044</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>47383</v>
+        <v>48451</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1442483159712332</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1003789097698364</v>
+        <v>0.1020699023471944</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1931182572413876</v>
+        <v>0.1974713487800223</v>
       </c>
     </row>
     <row r="6">
@@ -3640,19 +3640,19 @@
         <v>94183</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>81391</v>
+        <v>81637</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>105517</v>
+        <v>107334</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6390392033874454</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.552245615228602</v>
+        <v>0.5539139863842408</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7159420159863401</v>
+        <v>0.7282717612149446</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>59</v>
@@ -3661,19 +3661,19 @@
         <v>64082</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>53693</v>
+        <v>53963</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>73917</v>
+        <v>73616</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.654068696129015</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5480318481927638</v>
+        <v>0.5507820467473212</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7544453636538355</v>
+        <v>0.751375840924838</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>144</v>
@@ -3682,19 +3682,19 @@
         <v>158265</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>140184</v>
+        <v>142214</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>173671</v>
+        <v>173546</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6450407236320888</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5713481874578294</v>
+        <v>0.5796196211061756</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7078286902137075</v>
+        <v>0.7073189243713995</v>
       </c>
     </row>
     <row r="7">
@@ -3711,19 +3711,19 @@
         <v>27799</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18994</v>
+        <v>19195</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37713</v>
+        <v>38370</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1886220086713712</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1288732453766044</v>
+        <v>0.1302367868242622</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2558863734149872</v>
+        <v>0.2603462708121269</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -3732,19 +3732,19 @@
         <v>16750</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9849</v>
+        <v>10454</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25491</v>
+        <v>25403</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1709646534205402</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1005226244676251</v>
+        <v>0.1066973657445734</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2601818103677214</v>
+        <v>0.2592768649626097</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -3753,19 +3753,19 @@
         <v>44550</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33032</v>
+        <v>32823</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>59258</v>
+        <v>58919</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1815711403003037</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1346284467769467</v>
+        <v>0.1337783704643746</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.241518444410529</v>
+        <v>0.2401356530440788</v>
       </c>
     </row>
     <row r="8">
@@ -3857,19 +3857,19 @@
         <v>6733</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2860</v>
+        <v>2825</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12671</v>
+        <v>12503</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04474363207406573</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01900892789913014</v>
+        <v>0.0187708226481988</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08420887258615503</v>
+        <v>0.08308863952815537</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -3878,19 +3878,19 @@
         <v>3086</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>987</v>
+        <v>963</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8409</v>
+        <v>8347</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02455356579245081</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.007853765526579144</v>
+        <v>0.007664384255461211</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06689503237789132</v>
+        <v>0.06640912666431448</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>10</v>
@@ -3899,19 +3899,19 @@
         <v>9819</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5064</v>
+        <v>4748</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17366</v>
+        <v>16567</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03555434623670974</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01833588144086185</v>
+        <v>0.01719234125309781</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06288179715986322</v>
+        <v>0.05998746862395375</v>
       </c>
     </row>
     <row r="10">
@@ -3928,19 +3928,19 @@
         <v>19976</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12019</v>
+        <v>11906</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30375</v>
+        <v>29703</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1327506414648539</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07987556114288552</v>
+        <v>0.07912258480369086</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2018569177865686</v>
+        <v>0.1973968927633813</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -3949,19 +3949,19 @@
         <v>9149</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4169</v>
+        <v>4126</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17645</v>
+        <v>18063</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07278940910968613</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03316429112518271</v>
+        <v>0.03282760420924977</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1403742066451793</v>
+        <v>0.1437057696134259</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -3970,19 +3970,19 @@
         <v>29125</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19930</v>
+        <v>19431</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40773</v>
+        <v>42421</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1054599483296116</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07216364160402207</v>
+        <v>0.07035796588450423</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1476369129092712</v>
+        <v>0.1536015735734981</v>
       </c>
     </row>
     <row r="11">
@@ -3999,19 +3999,19 @@
         <v>91560</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>77593</v>
+        <v>78173</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>104320</v>
+        <v>105084</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6084686982461684</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5156504882215549</v>
+        <v>0.5195017769468067</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6932653468332943</v>
+        <v>0.6983440650238053</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>76</v>
@@ -4020,19 +4020,19 @@
         <v>86620</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>74839</v>
+        <v>73520</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>96312</v>
+        <v>97140</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6891137616633096</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5953901011109697</v>
+        <v>0.5849004339068298</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7662235414534256</v>
+        <v>0.7728104820037033</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>158</v>
@@ -4041,19 +4041,19 @@
         <v>178179</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>161383</v>
+        <v>159948</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>194177</v>
+        <v>193667</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6451734088090372</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5843547690411707</v>
+        <v>0.5791584284973601</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7031005929802037</v>
+        <v>0.7012512988581848</v>
       </c>
     </row>
     <row r="12">
@@ -4070,19 +4070,19 @@
         <v>32207</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22205</v>
+        <v>21111</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>44976</v>
+        <v>43966</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2140370282149119</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1475627622587319</v>
+        <v>0.1402927630151535</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2988919097082451</v>
+        <v>0.2921770868520326</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -4091,19 +4091,19 @@
         <v>26842</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17999</v>
+        <v>17922</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>38538</v>
+        <v>38201</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2135432634345534</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1431949777207517</v>
+        <v>0.1425831306817092</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3065981832231676</v>
+        <v>0.3039107906174284</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>50</v>
@@ -4112,19 +4112,19 @@
         <v>59049</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>45199</v>
+        <v>45224</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>73707</v>
+        <v>74604</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2138122966246414</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1636635646960398</v>
+        <v>0.1637536077070789</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2668880366186946</v>
+        <v>0.2701339735522456</v>
       </c>
     </row>
     <row r="13">
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3813</v>
+        <v>5091</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003489751463053835</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01420229061844953</v>
+        <v>0.01896157461356759</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5459</v>
+        <v>4665</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002663962550085093</v>
@@ -4262,7 +4262,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01552025192422212</v>
+        <v>0.01326274376328904</v>
       </c>
     </row>
     <row r="15">
@@ -4279,19 +4279,19 @@
         <v>36552</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>25904</v>
+        <v>25317</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>48224</v>
+        <v>48868</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1361318620879336</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09647609453099987</v>
+        <v>0.09428766523796792</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1796026465675384</v>
+        <v>0.1820014880347178</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>15</v>
@@ -4300,19 +4300,19 @@
         <v>15222</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>8135</v>
+        <v>8928</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>22498</v>
+        <v>22706</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1828874054653666</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09773764228208516</v>
+        <v>0.1072704642738356</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2703017379657952</v>
+        <v>0.2728066991414625</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>52</v>
@@ -4321,19 +4321,19 @@
         <v>51774</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>39847</v>
+        <v>39429</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>65668</v>
+        <v>64640</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1471957472240762</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1132857773363627</v>
+        <v>0.1120985349703295</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1866971487851109</v>
+        <v>0.1837755207531871</v>
       </c>
     </row>
     <row r="16">
@@ -4350,19 +4350,19 @@
         <v>189535</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>174962</v>
+        <v>172768</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>204488</v>
+        <v>204393</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7058931227218103</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6516168812911348</v>
+        <v>0.6434469247722605</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7615826071727902</v>
+        <v>0.7612294876374252</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>47</v>
@@ -4371,19 +4371,19 @@
         <v>51231</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42982</v>
+        <v>42338</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60761</v>
+        <v>60574</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6155197890593149</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5164154522535974</v>
+        <v>0.5086795876607836</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7300235513996127</v>
+        <v>0.727768025037112</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>224</v>
@@ -4392,19 +4392,19 @@
         <v>240766</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>223084</v>
+        <v>224317</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>257083</v>
+        <v>259882</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6845078470777944</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6342382836452798</v>
+        <v>0.6377417304919052</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7308976160233269</v>
+        <v>0.7388559733462166</v>
       </c>
     </row>
     <row r="17">
@@ -4421,19 +4421,19 @@
         <v>41480</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>30645</v>
+        <v>30656</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>54163</v>
+        <v>55780</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1544852637272023</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1141325655279955</v>
+        <v>0.1141722741766129</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2017214576633754</v>
+        <v>0.2077426370104173</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -4442,19 +4442,19 @@
         <v>16779</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9996</v>
+        <v>10056</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24496</v>
+        <v>24364</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2015928054753184</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1201038757818348</v>
+        <v>0.120821385025662</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.294305254080025</v>
+        <v>0.2927269674244553</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>56</v>
@@ -4463,19 +4463,19 @@
         <v>58259</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>44678</v>
+        <v>44068</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>74775</v>
+        <v>72268</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1656324431480442</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1270214075685215</v>
+        <v>0.1252871396128724</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2125882336353619</v>
+        <v>0.2054608380820725</v>
       </c>
     </row>
     <row r="18">
@@ -4567,19 +4567,19 @@
         <v>4138</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1021</v>
+        <v>1213</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8966</v>
+        <v>10245</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008285982104801826</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00204388144188206</v>
+        <v>0.00242928553291391</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01795398099069595</v>
+        <v>0.0205152143353923</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -4588,19 +4588,19 @@
         <v>5365</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2038</v>
+        <v>2094</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11435</v>
+        <v>12165</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01876676135494793</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007130439902002891</v>
+        <v>0.007325331203189043</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04000013038369622</v>
+        <v>0.04255533423962198</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -4609,19 +4609,19 @@
         <v>9503</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4998</v>
+        <v>4282</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17284</v>
+        <v>17815</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01210145787442417</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006364906342322963</v>
+        <v>0.005453194154632674</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02201063235399404</v>
+        <v>0.02268649360066383</v>
       </c>
     </row>
     <row r="20">
@@ -4638,19 +4638,19 @@
         <v>71534</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>55984</v>
+        <v>56537</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>90290</v>
+        <v>89743</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1432422684239169</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.11210366600242</v>
+        <v>0.1132126092052358</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.180799832000554</v>
+        <v>0.1797048272227088</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>44</v>
@@ -4659,19 +4659,19 @@
         <v>47219</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>35895</v>
+        <v>35767</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>62211</v>
+        <v>61555</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1651777858424299</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1255655092216733</v>
+        <v>0.1251166865341323</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2176214214508262</v>
+        <v>0.2153264111895558</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>107</v>
@@ -4680,19 +4680,19 @@
         <v>118753</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>99035</v>
+        <v>96879</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>141501</v>
+        <v>139495</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.151227784882848</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.126116905051569</v>
+        <v>0.1233714993887811</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1801955219108939</v>
+        <v>0.1776411451510168</v>
       </c>
     </row>
     <row r="21">
@@ -4709,19 +4709,19 @@
         <v>318972</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>295480</v>
+        <v>294735</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>339913</v>
+        <v>338722</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6387214809607471</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5916806248500585</v>
+        <v>0.5901894905590558</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6806558886568465</v>
+        <v>0.6782700659357515</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>161</v>
@@ -4730,19 +4730,19 @@
         <v>174080</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>157690</v>
+        <v>156115</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>189938</v>
+        <v>189975</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6089489197594503</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5516152917570288</v>
+        <v>0.5461049626017673</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6644205577899668</v>
+        <v>0.6645505839499128</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>457</v>
@@ -4751,19 +4751,19 @@
         <v>493052</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>464368</v>
+        <v>463460</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>519664</v>
+        <v>520781</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6278829275333803</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5913543636069014</v>
+        <v>0.590199065124458</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6617720667050113</v>
+        <v>0.6631942140499231</v>
       </c>
     </row>
     <row r="22">
@@ -4780,19 +4780,19 @@
         <v>104747</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>86759</v>
+        <v>86331</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>125414</v>
+        <v>124484</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2097502685105342</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1737292424871273</v>
+        <v>0.1728732325563987</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2511337850958281</v>
+        <v>0.249272569530023</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>53</v>
@@ -4801,19 +4801,19 @@
         <v>59206</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>46049</v>
+        <v>45119</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>74195</v>
+        <v>74387</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2071065330431719</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1610830339320855</v>
+        <v>0.1578320709463145</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2595411034829299</v>
+        <v>0.2602136585055236</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>155</v>
@@ -4822,19 +4822,19 @@
         <v>163953</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>141725</v>
+        <v>137650</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>190381</v>
+        <v>188999</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2087878297093475</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.180481762776272</v>
+        <v>0.17529217283506</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2424430574136137</v>
+        <v>0.2406824470992417</v>
       </c>
     </row>
     <row r="23">
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6629</v>
+        <v>6586</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.008569403087549663</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03034340842551721</v>
+        <v>0.03014476372803926</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6518</v>
+        <v>5456</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.005923499921378225</v>
@@ -4959,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03025381301789895</v>
+        <v>0.02532634701274169</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -4968,19 +4968,19 @@
         <v>3148</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>9271</v>
+        <v>8855</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.007255672875544731</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.002153350484010053</v>
+        <v>0.002147357048010418</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02136645302000999</v>
+        <v>0.02040625547695802</v>
       </c>
     </row>
     <row r="25">
@@ -4997,19 +4997,19 @@
         <v>47200</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>35093</v>
+        <v>35567</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>61656</v>
+        <v>60297</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2160478367967459</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1606305394634557</v>
+        <v>0.1627989459363929</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2822193586430323</v>
+        <v>0.2759976298373907</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>29</v>
@@ -5018,19 +5018,19 @@
         <v>31530</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22577</v>
+        <v>21588</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>43946</v>
+        <v>44071</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1463458612859953</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1047904651054833</v>
+        <v>0.1002011536127138</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.203977058327359</v>
+        <v>0.2045560223701012</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>73</v>
@@ -5039,19 +5039,19 @@
         <v>78730</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>63034</v>
+        <v>62594</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>96132</v>
+        <v>97506</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1814397709250836</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1452682085126899</v>
+        <v>0.1442540802934401</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2215460922034951</v>
+        <v>0.2247111871124496</v>
       </c>
     </row>
     <row r="26">
@@ -5068,19 +5068,19 @@
         <v>121547</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>105969</v>
+        <v>108023</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>135438</v>
+        <v>136119</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5563568229182231</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4850495267889887</v>
+        <v>0.4944531754576043</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6199367552176712</v>
+        <v>0.6230537322889355</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>136</v>
@@ -5089,19 +5089,19 @@
         <v>149896</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>134288</v>
+        <v>134568</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>162990</v>
+        <v>163782</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6957472862342533</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6233018835748552</v>
+        <v>0.6246039375366317</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7565246696171816</v>
+        <v>0.7601985035037992</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>255</v>
@@ -5110,19 +5110,19 @@
         <v>271443</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>249990</v>
+        <v>250055</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>290245</v>
+        <v>292638</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6255662578154974</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5761255730405008</v>
+        <v>0.5762752203307664</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6688976243503472</v>
+        <v>0.6744116136444812</v>
       </c>
     </row>
     <row r="27">
@@ -5139,19 +5139,19 @@
         <v>47851</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>34875</v>
+        <v>36217</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>60928</v>
+        <v>62483</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2190259371974814</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1596316594821439</v>
+        <v>0.1657738992113572</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2788838766448192</v>
+        <v>0.2860036655813718</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>31</v>
@@ -5160,19 +5160,19 @@
         <v>32744</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>22879</v>
+        <v>22827</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>44616</v>
+        <v>44644</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1519833525583731</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1061953915911274</v>
+        <v>0.1059504366136296</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2070860997324578</v>
+        <v>0.2072187438063882</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>77</v>
@@ -5181,19 +5181,19 @@
         <v>80595</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>64882</v>
+        <v>65405</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>99176</v>
+        <v>97720</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1857382983838743</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1495275246642012</v>
+        <v>0.1507319142454895</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2285601687864953</v>
+        <v>0.2252038147862432</v>
       </c>
     </row>
     <row r="28">
@@ -5288,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7535</v>
+        <v>7192</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03374500250703932</v>
@@ -5297,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1204629499179867</v>
+        <v>0.114979035328179</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -5306,19 +5306,19 @@
         <v>3079</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8747</v>
+        <v>8239</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01888986238525207</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.006057449298470326</v>
+        <v>0.006086335345136671</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05365662219727158</v>
+        <v>0.05053921420084147</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5</v>
@@ -5327,19 +5327,19 @@
         <v>5190</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1986</v>
+        <v>1962</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>12579</v>
+        <v>11706</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02300930847785206</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.00880471991756657</v>
+        <v>0.0086984771456578</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05576879198778344</v>
+        <v>0.05189483895734892</v>
       </c>
     </row>
     <row r="30">
@@ -5356,19 +5356,19 @@
         <v>17492</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11187</v>
+        <v>11395</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>24604</v>
+        <v>24983</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2796378129930456</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1788422649166009</v>
+        <v>0.1821761565859677</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3933377707819342</v>
+        <v>0.3994055206194767</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>23</v>
@@ -5377,19 +5377,19 @@
         <v>24833</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>16308</v>
+        <v>16663</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>34728</v>
+        <v>35741</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.152337807139544</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1000439448371044</v>
+        <v>0.1022205796298344</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2130375900776674</v>
+        <v>0.2192544770105375</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>41</v>
@@ -5398,19 +5398,19 @@
         <v>42325</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>30720</v>
+        <v>31581</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>55396</v>
+        <v>56517</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1876390905607649</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1361941576042846</v>
+        <v>0.1400072264577883</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2455885787889348</v>
+        <v>0.2505594471234815</v>
       </c>
     </row>
     <row r="31">
@@ -5427,19 +5427,19 @@
         <v>12726</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>7100</v>
+        <v>7660</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>19588</v>
+        <v>20510</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2034434454175293</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1135130005349937</v>
+        <v>0.1224547772427132</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3131447828362032</v>
+        <v>0.3278930275014967</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>85</v>
@@ -5448,19 +5448,19 @@
         <v>86859</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>74226</v>
+        <v>73217</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>101288</v>
+        <v>99528</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5328322441603008</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4553363602387884</v>
+        <v>0.4491467860491594</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6213518266099938</v>
+        <v>0.6105500965376512</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>98</v>
@@ -5469,19 +5469,19 @@
         <v>99584</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>84688</v>
+        <v>83186</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>114026</v>
+        <v>113282</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4414901639912273</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3754488372468845</v>
+        <v>0.3687897669891057</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5055154498073499</v>
+        <v>0.5022156670727134</v>
       </c>
     </row>
     <row r="32">
@@ -5498,19 +5498,19 @@
         <v>30223</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>22306</v>
+        <v>22429</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>37100</v>
+        <v>37600</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4831737390823858</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3566056498174028</v>
+        <v>0.3585756128519083</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.593116724442398</v>
+        <v>0.601112597632557</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>44</v>
@@ -5519,19 +5519,19 @@
         <v>48242</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>35080</v>
+        <v>37384</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>62153</v>
+        <v>61571</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2959400863149031</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2151984702322582</v>
+        <v>0.229333248729962</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3812750255991538</v>
+        <v>0.3777086453773653</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>74</v>
@@ -5540,19 +5540,19 @@
         <v>78465</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>65027</v>
+        <v>64827</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>93732</v>
+        <v>94061</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3478614369701558</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2882880088849804</v>
+        <v>0.2873997313263038</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4155467970396091</v>
+        <v>0.4170052834747099</v>
       </c>
     </row>
     <row r="33">
@@ -5644,19 +5644,19 @@
         <v>21878</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>14569</v>
+        <v>13924</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>32354</v>
+        <v>32752</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01624506469920704</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01081734730928921</v>
+        <v>0.01033867111708006</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.02402345965910993</v>
+        <v>0.02431861321619587</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>13</v>
@@ -5665,19 +5665,19 @@
         <v>13869</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>8204</v>
+        <v>8141</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>23659</v>
+        <v>23580</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01427938528704958</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.008446865970963882</v>
+        <v>0.008382628498298871</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02436021340832208</v>
+        <v>0.024277881881073</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>35</v>
@@ -5686,19 +5686,19 @@
         <v>35747</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>25697</v>
+        <v>25757</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>49820</v>
+        <v>49711</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01542145454580929</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01108582768017352</v>
+        <v>0.01111178310427946</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02149249243231939</v>
+        <v>0.02144553276684524</v>
       </c>
     </row>
     <row r="35">
@@ -5715,19 +5715,19 @@
         <v>212065</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>184408</v>
+        <v>184538</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>240546</v>
+        <v>240522</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.157461564661985</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1369254882305399</v>
+        <v>0.1370221752177793</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1786090560394054</v>
+        <v>0.1785914873873314</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>132</v>
@@ -5736,19 +5736,19 @@
         <v>144034</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>122844</v>
+        <v>122573</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>170408</v>
+        <v>167824</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1483001082374762</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1264824751447587</v>
+        <v>0.1262034836938974</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1754555437061006</v>
+        <v>0.1727950781217513</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>332</v>
@@ -5757,19 +5757,19 @@
         <v>356099</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>321881</v>
+        <v>320805</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>397282</v>
+        <v>391329</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1536229587914301</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1388612485592848</v>
+        <v>0.1383969152428683</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1713894359366904</v>
+        <v>0.1688213477640688</v>
       </c>
     </row>
     <row r="36">
@@ -5786,19 +5786,19 @@
         <v>828523</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>791243</v>
+        <v>792599</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>865556</v>
+        <v>866796</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.6151905884837732</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5875099456573027</v>
+        <v>0.5885164046692809</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.6426881087915933</v>
+        <v>0.6436087866344352</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>564</v>
@@ -5807,19 +5807,19 @@
         <v>612768</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>582023</v>
+        <v>579052</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>642672</v>
+        <v>642746</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.6309171557389507</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.599261586461094</v>
+        <v>0.5962027864274623</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6617063649411042</v>
+        <v>0.6617831526212787</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1336</v>
@@ -5828,19 +5828,19 @@
         <v>1441290</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1391228</v>
+        <v>1398308</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1490179</v>
+        <v>1495575</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.6217799439958404</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.6001826663457605</v>
+        <v>0.6032371858877665</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.6428708316873778</v>
+        <v>0.6451987618253185</v>
       </c>
     </row>
     <row r="37">
@@ -5857,19 +5857,19 @@
         <v>284308</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>254085</v>
+        <v>251852</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>316788</v>
+        <v>317888</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2111027821550348</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1886616157905094</v>
+        <v>0.1870037199508442</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2352198427209312</v>
+        <v>0.2360369679932137</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>184</v>
@@ -5878,19 +5878,19 @@
         <v>200563</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>175212</v>
+        <v>176254</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>228460</v>
+        <v>230252</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2065033507365235</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1804012385473767</v>
+        <v>0.1814740344922217</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2352266882235272</v>
+        <v>0.237072011929513</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>455</v>
@@ -5899,19 +5899,19 @@
         <v>484871</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>447390</v>
+        <v>442866</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>529941</v>
+        <v>524255</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2091756426669203</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1930064409579178</v>
+        <v>0.1910547391401198</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2286194048808569</v>
+        <v>0.2261663566272487</v>
       </c>
     </row>
     <row r="38">
@@ -6248,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8405</v>
+        <v>7740</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02239532219998105</v>
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07992537115461987</v>
+        <v>0.07360810344968621</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -6269,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5809</v>
+        <v>5811</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02829773106689942</v>
@@ -6278,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08737600656861605</v>
+        <v>0.08740621120340775</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -6287,19 +6287,19 @@
         <v>4236</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1296</v>
+        <v>1017</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11918</v>
+        <v>10649</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02468151181526482</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007550199873300668</v>
+        <v>0.005923871968452848</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06943789177056235</v>
+        <v>0.06204456145979108</v>
       </c>
     </row>
     <row r="5">
@@ -6316,19 +6316,19 @@
         <v>20839</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12828</v>
+        <v>12544</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30322</v>
+        <v>31136</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.198171627983902</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1219841887407067</v>
+        <v>0.1192839543951252</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2883465889348088</v>
+        <v>0.2960886018593204</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -6337,19 +6337,19 @@
         <v>8925</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4042</v>
+        <v>4173</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15901</v>
+        <v>15204</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1342464574964027</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06079376278796281</v>
+        <v>0.06277545108755603</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2391787115767667</v>
+        <v>0.2287041809548462</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -6358,19 +6358,19 @@
         <v>29764</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20521</v>
+        <v>20430</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>42045</v>
+        <v>40820</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.173411387848239</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1195586890330671</v>
+        <v>0.1190261925695203</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2449608110703334</v>
+        <v>0.237821713397248</v>
       </c>
     </row>
     <row r="6">
@@ -6387,19 +6387,19 @@
         <v>66625</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56401</v>
+        <v>56165</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>76895</v>
+        <v>76702</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.633574500853286</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5363429565347534</v>
+        <v>0.534102458965688</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7312358318462191</v>
+        <v>0.7293938281729877</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>45</v>
@@ -6408,19 +6408,19 @@
         <v>44498</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>36060</v>
+        <v>36468</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>51591</v>
+        <v>51116</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6693390388899679</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5424106002085953</v>
+        <v>0.5485475577141109</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7760328949555773</v>
+        <v>0.7688823920296265</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>106</v>
@@ -6429,19 +6429,19 @@
         <v>111124</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>97410</v>
+        <v>97312</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>123452</v>
+        <v>123805</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6474272374729321</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5675267139750947</v>
+        <v>0.5669521201578152</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7192488329139616</v>
+        <v>0.7213066360661194</v>
       </c>
     </row>
     <row r="7">
@@ -6458,19 +6458,19 @@
         <v>15338</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8829</v>
+        <v>8807</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24037</v>
+        <v>24578</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1458585489628308</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08395470074993822</v>
+        <v>0.08374627426345846</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2285756084107124</v>
+        <v>0.2337276648725821</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -6479,19 +6479,19 @@
         <v>11177</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6029</v>
+        <v>5506</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19680</v>
+        <v>18743</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.16811677254673</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0906854713633681</v>
+        <v>0.08282360302927723</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.29601796676144</v>
+        <v>0.2819229711180546</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>25</v>
@@ -6500,19 +6500,19 @@
         <v>26515</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17004</v>
+        <v>17364</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38108</v>
+        <v>36881</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1544798628635641</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09906956676376333</v>
+        <v>0.1011626321424426</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2220202153901087</v>
+        <v>0.2148756120204622</v>
       </c>
     </row>
     <row r="8">
@@ -6604,19 +6604,19 @@
         <v>2995</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8423</v>
+        <v>7782</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02863901372073847</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.008989145828705603</v>
+        <v>0.009030253144282782</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08053058248601971</v>
+        <v>0.07440583448933029</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -6625,19 +6625,19 @@
         <v>2976</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>895</v>
+        <v>910</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7550</v>
+        <v>7535</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03003551173901342</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.009036330176499283</v>
+        <v>0.009187006897357472</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07620627210373679</v>
+        <v>0.07605698494438992</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -6646,19 +6646,19 @@
         <v>5971</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2096</v>
+        <v>2021</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12175</v>
+        <v>12191</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02931834462507035</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.010289339565048</v>
+        <v>0.009923967981306996</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0597805196143034</v>
+        <v>0.05985857998223371</v>
       </c>
     </row>
     <row r="10">
@@ -6675,19 +6675,19 @@
         <v>16862</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9252</v>
+        <v>9859</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25656</v>
+        <v>25713</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1612168353841203</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08845505095379749</v>
+        <v>0.09426294311344952</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2452904185688073</v>
+        <v>0.2458346271992862</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -6696,19 +6696,19 @@
         <v>17394</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10586</v>
+        <v>10659</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26069</v>
+        <v>26431</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1755607289001007</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1068507401524891</v>
+        <v>0.1075839487652943</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2631230127613386</v>
+        <v>0.266770811151809</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -6717,19 +6717,19 @@
         <v>34256</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24586</v>
+        <v>24111</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>47419</v>
+        <v>46960</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.168194468024006</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1207145688286174</v>
+        <v>0.1183836322349425</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2328217813730186</v>
+        <v>0.2305714642789904</v>
       </c>
     </row>
     <row r="11">
@@ -6746,19 +6746,19 @@
         <v>61709</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>51756</v>
+        <v>51567</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>72629</v>
+        <v>71893</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5899814891774479</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4948286749838638</v>
+        <v>0.4930239468401595</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6943905979555325</v>
+        <v>0.6873555627296409</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>55</v>
@@ -6767,19 +6767,19 @@
         <v>58679</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>48667</v>
+        <v>48231</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>68481</v>
+        <v>67682</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5922629337464945</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4912087202669047</v>
+        <v>0.4868116115844415</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6911930530822501</v>
+        <v>0.6831299993346355</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>113</v>
@@ -6788,19 +6788,19 @@
         <v>120387</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>106385</v>
+        <v>105864</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>133481</v>
+        <v>134516</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5910913051471032</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5223420524123776</v>
+        <v>0.5197834382465822</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6553815783971459</v>
+        <v>0.6604643777394402</v>
       </c>
     </row>
     <row r="12">
@@ -6817,19 +6817,19 @@
         <v>23028</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15235</v>
+        <v>15105</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>32073</v>
+        <v>33454</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2201626617176934</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1456596798597855</v>
+        <v>0.144416585096351</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3066390499323138</v>
+        <v>0.3198469998595797</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>20</v>
@@ -6838,19 +6838,19 @@
         <v>20027</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12985</v>
+        <v>13078</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28168</v>
+        <v>30084</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2021408256143914</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1310569200599572</v>
+        <v>0.1320040109371869</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2843066671792439</v>
+        <v>0.3036462964426748</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>41</v>
@@ -6859,19 +6859,19 @@
         <v>43055</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>32405</v>
+        <v>31466</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>55251</v>
+        <v>56016</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2113958822038205</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1591085723919876</v>
+        <v>0.1544970792619248</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2712783129035375</v>
+        <v>0.275035798078973</v>
       </c>
     </row>
     <row r="13">
@@ -6963,19 +6963,19 @@
         <v>5935</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2035</v>
+        <v>2104</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12169</v>
+        <v>12007</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02763904339979379</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.00947697404035628</v>
+        <v>0.009798363155961059</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05667111396258018</v>
+        <v>0.05591785524779764</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4827</v>
+        <v>4940</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01788422893226731</v>
@@ -6996,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0919294770546957</v>
+        <v>0.09408298804226495</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -7005,19 +7005,19 @@
         <v>6874</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2891</v>
+        <v>2922</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>13474</v>
+        <v>14004</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02572248337398488</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01081718495176734</v>
+        <v>0.01093456487653571</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05041983604428102</v>
+        <v>0.05240641601188116</v>
       </c>
     </row>
     <row r="15">
@@ -7034,19 +7034,19 @@
         <v>42272</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>31131</v>
+        <v>31557</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>55879</v>
+        <v>55330</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1968644653598919</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1449822827744827</v>
+        <v>0.1469662455973682</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2602330971060853</v>
+        <v>0.2576769115335256</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -7055,19 +7055,19 @@
         <v>5129</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>12109</v>
+        <v>11951</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09769872936572264</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02979264334948506</v>
+        <v>0.02977447567944838</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2306398155385065</v>
+        <v>0.2276276225027712</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>43</v>
@@ -7076,19 +7076,19 @@
         <v>47401</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>35780</v>
+        <v>34950</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>63113</v>
+        <v>60579</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1773810516907709</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1338943461700227</v>
+        <v>0.1307860359704187</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2361748113520525</v>
+        <v>0.2266927451257452</v>
       </c>
     </row>
     <row r="16">
@@ -7105,19 +7105,19 @@
         <v>126592</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>110624</v>
+        <v>112322</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>141805</v>
+        <v>142933</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5895544920554179</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5151873380810379</v>
+        <v>0.5230987449173714</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6604009774095161</v>
+        <v>0.6656559156971503</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -7126,19 +7126,19 @@
         <v>38718</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31439</v>
+        <v>31835</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>44418</v>
+        <v>44660</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.737445839763342</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5988133539615548</v>
+        <v>0.6063387442874126</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8460117023382453</v>
+        <v>0.8506228453112059</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>152</v>
@@ -7147,19 +7147,19 @@
         <v>165310</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>148189</v>
+        <v>147883</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>181737</v>
+        <v>181402</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6186111846376896</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5545424823541859</v>
+        <v>0.5533968471999029</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6800811189853779</v>
+        <v>0.6788292396300395</v>
       </c>
     </row>
     <row r="17">
@@ -7176,19 +7176,19 @@
         <v>39926</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29131</v>
+        <v>28625</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>52311</v>
+        <v>51390</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1859419991848964</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1356667287206017</v>
+        <v>0.1333099553816076</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2436184777656797</v>
+        <v>0.2393273125114425</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -7197,19 +7197,19 @@
         <v>7716</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3615</v>
+        <v>3759</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13136</v>
+        <v>13876</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1469712019386681</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06884724549048965</v>
+        <v>0.07159365772089615</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2501872765146997</v>
+        <v>0.2642868107886567</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>46</v>
@@ -7218,19 +7218,19 @@
         <v>47643</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>36392</v>
+        <v>35817</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>61521</v>
+        <v>61343</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1782852802975546</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1361820650675023</v>
+        <v>0.1340330525425771</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2302172973450549</v>
+        <v>0.2295519609698839</v>
       </c>
     </row>
     <row r="18">
@@ -7322,19 +7322,19 @@
         <v>7536</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2920</v>
+        <v>2894</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15297</v>
+        <v>16026</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0178035038825302</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006899470643908794</v>
+        <v>0.006836300961688616</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03614168521398493</v>
+        <v>0.03786421601235856</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -7343,19 +7343,19 @@
         <v>6968</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3035</v>
+        <v>2970</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14466</v>
+        <v>13688</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02220911626634454</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.009673970280523293</v>
+        <v>0.009465620799163507</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04610736371225246</v>
+        <v>0.04362807277953401</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -7364,19 +7364,19 @@
         <v>14504</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8658</v>
+        <v>8420</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24787</v>
+        <v>24209</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01967899901868983</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01174714118034718</v>
+        <v>0.01142459493543848</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03363183799841903</v>
+        <v>0.03284790080708459</v>
       </c>
     </row>
     <row r="20">
@@ -7393,19 +7393,19 @@
         <v>88833</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>73969</v>
+        <v>72320</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>107503</v>
+        <v>107291</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2098780032088145</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1747592697785257</v>
+        <v>0.1708633211050099</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2539881848445708</v>
+        <v>0.2534863657580849</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>73</v>
@@ -7414,19 +7414,19 @@
         <v>75044</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>60927</v>
+        <v>59945</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>91174</v>
+        <v>90473</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2391844317091766</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1941916321909117</v>
+        <v>0.1910615253205796</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2905957068756101</v>
+        <v>0.2883619570536936</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>155</v>
@@ -7435,19 +7435,19 @@
         <v>163877</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>142359</v>
+        <v>141798</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>186104</v>
+        <v>188098</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2223539224051038</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1931583140887756</v>
+        <v>0.1923966829550713</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2525119478311857</v>
+        <v>0.2552179973063622</v>
       </c>
     </row>
     <row r="21">
@@ -7464,19 +7464,19 @@
         <v>235875</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>214484</v>
+        <v>215127</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>255809</v>
+        <v>257386</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5572818921065492</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5067440778256883</v>
+        <v>0.5082609834921277</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6043773143849888</v>
+        <v>0.6081029057978169</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>176</v>
@@ -7485,19 +7485,19 @@
         <v>179510</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>162919</v>
+        <v>161885</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>198062</v>
+        <v>197925</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5721438617938552</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5192656910380873</v>
+        <v>0.5159697492996663</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.631276864559458</v>
+        <v>0.6308395881390341</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>400</v>
@@ -7506,19 +7506,19 @@
         <v>415385</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>387604</v>
+        <v>388088</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>442477</v>
+        <v>440989</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5636087201236254</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5259151069167989</v>
+        <v>0.5265711004022074</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6003681901880267</v>
+        <v>0.5983492747469031</v>
       </c>
     </row>
     <row r="22">
@@ -7535,19 +7535,19 @@
         <v>91016</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>74956</v>
+        <v>74481</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>108677</v>
+        <v>107841</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2150366008021062</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1770915565352569</v>
+        <v>0.175970330822897</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.256761801577349</v>
+        <v>0.2547858270411411</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>51</v>
@@ -7556,19 +7556,19 @@
         <v>52227</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>40205</v>
+        <v>39616</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>67285</v>
+        <v>66856</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1664625902306236</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1281441230527004</v>
+        <v>0.126267948953257</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2144558599149807</v>
+        <v>0.2130862957536962</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>137</v>
@@ -7577,19 +7577,19 @@
         <v>143244</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>123233</v>
+        <v>123667</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>165949</v>
+        <v>168088</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.194358358452581</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1672065387012289</v>
+        <v>0.1677956882736807</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2251660356273013</v>
+        <v>0.2280674445713277</v>
       </c>
     </row>
     <row r="23">
@@ -7681,19 +7681,19 @@
         <v>8817</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4026</v>
+        <v>4789</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16169</v>
+        <v>16166</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03685261380963532</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01682879822296732</v>
+        <v>0.02001964471635359</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06758708079338314</v>
+        <v>0.06757150437937888</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -7702,19 +7702,19 @@
         <v>6200</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2652</v>
+        <v>2372</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12980</v>
+        <v>12865</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02898294402954608</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01239605232773774</v>
+        <v>0.01108991814659001</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.06067394752765994</v>
+        <v>0.06013726491903727</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>15</v>
@@ -7723,19 +7723,19 @@
         <v>15017</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>8347</v>
+        <v>7753</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>23743</v>
+        <v>22942</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03313755399137413</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01841876037126467</v>
+        <v>0.01710937436228032</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.05239371596500439</v>
+        <v>0.05062601970110699</v>
       </c>
     </row>
     <row r="25">
@@ -7752,19 +7752,19 @@
         <v>40606</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30225</v>
+        <v>29384</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>53367</v>
+        <v>53194</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1697321349320248</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.126339981338108</v>
+        <v>0.1228253778401844</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2230736573935277</v>
+        <v>0.2223470315933543</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>37</v>
@@ -7773,19 +7773,19 @@
         <v>38837</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>28655</v>
+        <v>27931</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>51918</v>
+        <v>51314</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1815436384793047</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.133950213603417</v>
+        <v>0.1305630756841573</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2426894919499369</v>
+        <v>0.2398670694261679</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>75</v>
@@ -7794,19 +7794,19 @@
         <v>79443</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>62372</v>
+        <v>63331</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>97081</v>
+        <v>95863</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1753080286414114</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1376370802944187</v>
+        <v>0.1397526580085216</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2142294754413314</v>
+        <v>0.2115417433445942</v>
       </c>
     </row>
     <row r="26">
@@ -7823,19 +7823,19 @@
         <v>131001</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>114622</v>
+        <v>114478</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>145990</v>
+        <v>145723</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5475768119583311</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4791142938261518</v>
+        <v>0.4785118897485759</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.610232273632706</v>
+        <v>0.6091164322374467</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>115</v>
@@ -7844,19 +7844,19 @@
         <v>115938</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>100842</v>
+        <v>100697</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>131302</v>
+        <v>130444</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5419518736324851</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4713884804516558</v>
+        <v>0.4707114525686872</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6137752668202299</v>
+        <v>0.6097617279970894</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>234</v>
@@ -7865,19 +7865,19 @@
         <v>246938</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>223518</v>
+        <v>225723</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>268241</v>
+        <v>268183</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.544921429593061</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4932393826888979</v>
+        <v>0.4981050985642553</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5919306766201613</v>
+        <v>0.5918030273434149</v>
       </c>
     </row>
     <row r="27">
@@ -7894,19 +7894,19 @@
         <v>58814</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>45289</v>
+        <v>45561</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>73313</v>
+        <v>73341</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2458384393000087</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1893077201182152</v>
+        <v>0.1904448191594283</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3064438435173317</v>
+        <v>0.3065625371839127</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>49</v>
@@ -7915,19 +7915,19 @@
         <v>52951</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>40036</v>
+        <v>40808</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>66659</v>
+        <v>67025</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2475215438586641</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1871486052313768</v>
+        <v>0.1907558715381447</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3115969703178487</v>
+        <v>0.3133073075309141</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>103</v>
@@ -7936,19 +7936,19 @@
         <v>111765</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>91069</v>
+        <v>93107</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>130069</v>
+        <v>129674</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2466329877741535</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2009624510858814</v>
+        <v>0.2054605766933884</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2870250967162671</v>
+        <v>0.2861520887712697</v>
       </c>
     </row>
     <row r="28">
@@ -8040,19 +8040,19 @@
         <v>4194</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9686</v>
+        <v>9537</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05915468964633684</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01501376248611424</v>
+        <v>0.0149305551074761</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1366171394694324</v>
+        <v>0.1345075496884092</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -8061,19 +8061,19 @@
         <v>3935</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8954</v>
+        <v>9391</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02342938893337202</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.006097008913580173</v>
+        <v>0.006073532867956938</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05331135500151625</v>
+        <v>0.05591211466374423</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8</v>
@@ -8082,19 +8082,19 @@
         <v>8129</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3296</v>
+        <v>3915</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>14721</v>
+        <v>15357</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03403342042091305</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01379821812236852</v>
+        <v>0.01639057521757768</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06162716265448721</v>
+        <v>0.06428943177883857</v>
       </c>
     </row>
     <row r="30">
@@ -8111,19 +8111,19 @@
         <v>19942</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12824</v>
+        <v>13125</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>28395</v>
+        <v>28569</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2812609980649294</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1808788521323979</v>
+        <v>0.1851200228759171</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.400482304456955</v>
+        <v>0.4029413996688728</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>38</v>
@@ -8132,19 +8132,19 @@
         <v>37753</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>28202</v>
+        <v>27863</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>50094</v>
+        <v>49960</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2247681815272097</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1679006185874458</v>
+        <v>0.1658861702943858</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2982389726840923</v>
+        <v>0.2974382347643165</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>56</v>
@@ -8153,19 +8153,19 @@
         <v>57695</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>45043</v>
+        <v>45023</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>71752</v>
+        <v>71432</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2415364548077887</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1885702811596561</v>
+        <v>0.1884858027640312</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3003880674167071</v>
+        <v>0.2990471076936795</v>
       </c>
     </row>
     <row r="31">
@@ -8182,19 +8182,19 @@
         <v>23802</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>15427</v>
+        <v>16719</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>32297</v>
+        <v>31898</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3357012511683434</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.217578243923282</v>
+        <v>0.2358011926498688</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4555195690003025</v>
+        <v>0.4498906668612055</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>80</v>
@@ -8203,19 +8203,19 @@
         <v>84751</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>72374</v>
+        <v>71484</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>100027</v>
+        <v>97862</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.5045732509624816</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4308819063321386</v>
+        <v>0.4255863909699577</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5955217339680769</v>
+        <v>0.5826282199087538</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>104</v>
@@ -8224,19 +8224,19 @@
         <v>108552</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>93239</v>
+        <v>92711</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>123692</v>
+        <v>123634</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4544484383662589</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3903383222248029</v>
+        <v>0.3881298119913436</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5178309568908598</v>
+        <v>0.5175868095108648</v>
       </c>
     </row>
     <row r="32">
@@ -8253,19 +8253,19 @@
         <v>22964</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>15603</v>
+        <v>15712</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>31553</v>
+        <v>31712</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3238830611203903</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2200660673870102</v>
+        <v>0.2216016089880526</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4450274439491837</v>
+        <v>0.4472645458065764</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>38</v>
@@ -8274,19 +8274,19 @@
         <v>41526</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>29186</v>
+        <v>30838</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>53123</v>
+        <v>53299</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2472291785769366</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1737584659474741</v>
+        <v>0.1835993473957114</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3162731749813097</v>
+        <v>0.3173173562705071</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>60</v>
@@ -8295,19 +8295,19 @@
         <v>64489</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>50972</v>
+        <v>51513</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>79090</v>
+        <v>80887</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2699816864050393</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2133895975151737</v>
+        <v>0.2156585199238995</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3311055979327158</v>
+        <v>0.3386305054950083</v>
       </c>
     </row>
     <row r="33">
@@ -8399,19 +8399,19 @@
         <v>31831</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>22092</v>
+        <v>22061</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>45446</v>
+        <v>45626</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02749126097951317</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01907948076987741</v>
+        <v>0.01905297051814101</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03924991575718707</v>
+        <v>0.03940523685327829</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>23</v>
@@ -8420,19 +8420,19 @@
         <v>22900</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>14552</v>
+        <v>14970</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>33690</v>
+        <v>33707</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02506254011375764</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01592661278743431</v>
+        <v>0.01638412244228438</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03687189778864635</v>
+        <v>0.03689089203585242</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>54</v>
@@ -8441,19 +8441,19 @@
         <v>54731</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>42015</v>
+        <v>41775</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>70976</v>
+        <v>70209</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02642003521444964</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02028144750870017</v>
+        <v>0.02016596178522987</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03426161325410249</v>
+        <v>0.03389170589535323</v>
       </c>
     </row>
     <row r="35">
@@ -8470,19 +8470,19 @@
         <v>229354</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>204456</v>
+        <v>203967</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>259393</v>
+        <v>259611</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1980820100282266</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1765784186029309</v>
+        <v>0.1761565021496518</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2240253715356116</v>
+        <v>0.2242136482437228</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>178</v>
@@ -8491,19 +8491,19 @@
         <v>183082</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>159134</v>
+        <v>157327</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>208438</v>
+        <v>208612</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2003744379412966</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1741638267888836</v>
+        <v>0.1721869781336002</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2281251632239188</v>
+        <v>0.2283156331783541</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>387</v>
@@ -8512,19 +8512,19 @@
         <v>412436</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>373077</v>
+        <v>376339</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>449115</v>
+        <v>448567</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.199093121630081</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1800931992913973</v>
+        <v>0.181667834987397</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2167988352365917</v>
+        <v>0.2165341484499007</v>
       </c>
     </row>
     <row r="36">
@@ -8541,19 +8541,19 @@
         <v>645603</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>609732</v>
+        <v>610072</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>681128</v>
+        <v>680448</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5575761098645033</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.5265965700125732</v>
+        <v>0.5268898718295774</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5882573786791691</v>
+        <v>0.5876700523515008</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>508</v>
@@ -8562,19 +8562,19 @@
         <v>522094</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>492741</v>
+        <v>488548</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>553778</v>
+        <v>550869</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.5714056087958271</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.5392806000303801</v>
+        <v>0.534690895578774</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.6060820684199315</v>
+        <v>0.6028981563138183</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1109</v>
@@ -8583,19 +8583,19 @@
         <v>1167697</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1122178</v>
+        <v>1122463</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1213254</v>
+        <v>1211489</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5636758291784988</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5417026806281728</v>
+        <v>0.5418402468992966</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5856674272326229</v>
+        <v>0.5848153699783303</v>
       </c>
     </row>
     <row r="37">
@@ -8612,19 +8612,19 @@
         <v>251086</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>223134</v>
+        <v>221326</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>279788</v>
+        <v>280638</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2168506191277569</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1927101730623522</v>
+        <v>0.1911489513333484</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2416391786411293</v>
+        <v>0.2423738998284767</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>176</v>
@@ -8633,19 +8633,19 @@
         <v>185625</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>163105</v>
+        <v>161708</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>213804</v>
+        <v>212071</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2031574131491186</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1785107136810162</v>
+        <v>0.1769813436368317</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2339981147295006</v>
+        <v>0.2321011690899032</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>412</v>
@@ -8654,19 +8654,19 @@
         <v>436711</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>398966</v>
+        <v>400398</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>477254</v>
+        <v>471912</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2108110139769706</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1925906262477198</v>
+        <v>0.193282022066632</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2303821493903218</v>
+        <v>0.2278035294156848</v>
       </c>
     </row>
     <row r="38">
